--- a/natmiOut/OldD0/LR-pairs_lrc2p/Angpt4-Tek.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Angpt4-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Tek</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.82484047708389</v>
+        <v>0.05953266666666667</v>
       </c>
       <c r="H2">
-        <v>1.82484047708389</v>
+        <v>0.178598</v>
       </c>
       <c r="I2">
-        <v>0.6699853101801014</v>
+        <v>0.01698622882665693</v>
       </c>
       <c r="J2">
-        <v>0.6699853101801014</v>
+        <v>0.01698622882665692</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.6506838394129</v>
+        <v>34.10446833333334</v>
       </c>
       <c r="N2">
-        <v>13.6506838394129</v>
+        <v>102.313405</v>
       </c>
       <c r="O2">
-        <v>0.2974796127121833</v>
+        <v>0.5118942073015388</v>
       </c>
       <c r="P2">
-        <v>0.2974796127121833</v>
+        <v>0.5118942073015389</v>
       </c>
       <c r="Q2">
-        <v>24.91032041003558</v>
+        <v>2.030329945132223</v>
       </c>
       <c r="R2">
-        <v>24.91032041003558</v>
+        <v>18.27296950619</v>
       </c>
       <c r="S2">
-        <v>0.1993069705952286</v>
+        <v>0.008695152140264095</v>
       </c>
       <c r="T2">
-        <v>0.1993069705952286</v>
+        <v>0.008695152140264095</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.82484047708389</v>
+        <v>0.05953266666666667</v>
       </c>
       <c r="H3">
-        <v>1.82484047708389</v>
+        <v>0.178598</v>
       </c>
       <c r="I3">
-        <v>0.6699853101801014</v>
+        <v>0.01698622882665693</v>
       </c>
       <c r="J3">
-        <v>0.6699853101801014</v>
+        <v>0.01698622882665692</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>30.8762685878673</v>
+        <v>31.083557</v>
       </c>
       <c r="N3">
-        <v>30.8762685878673</v>
+        <v>93.25067100000001</v>
       </c>
       <c r="O3">
-        <v>0.6728644901288077</v>
+        <v>0.4665515560925921</v>
       </c>
       <c r="P3">
-        <v>0.6728644901288077</v>
+        <v>0.4665515560925922</v>
       </c>
       <c r="Q3">
-        <v>56.34426470045409</v>
+        <v>1.850487037695334</v>
       </c>
       <c r="R3">
-        <v>56.34426470045409</v>
+        <v>16.654383339258</v>
       </c>
       <c r="S3">
-        <v>0.450809324128125</v>
+        <v>0.007924951491221634</v>
       </c>
       <c r="T3">
-        <v>0.450809324128125</v>
+        <v>0.007924951491221634</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.82484047708389</v>
+        <v>0.05953266666666667</v>
       </c>
       <c r="H4">
-        <v>1.82484047708389</v>
+        <v>0.178598</v>
       </c>
       <c r="I4">
-        <v>0.6699853101801014</v>
+        <v>0.01698622882665693</v>
       </c>
       <c r="J4">
-        <v>0.6699853101801014</v>
+        <v>0.01698622882665692</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.36084376472363</v>
+        <v>1.436030666666667</v>
       </c>
       <c r="N4">
-        <v>1.36084376472363</v>
+        <v>4.308092</v>
       </c>
       <c r="O4">
-        <v>0.02965589715900899</v>
+        <v>0.02155423660586901</v>
       </c>
       <c r="P4">
-        <v>0.02965589715900899</v>
+        <v>0.02155423660586901</v>
       </c>
       <c r="Q4">
-        <v>2.483322784854906</v>
+        <v>0.08549073500177778</v>
       </c>
       <c r="R4">
-        <v>2.483322784854906</v>
+        <v>0.7694166150160001</v>
       </c>
       <c r="S4">
-        <v>0.01986901545674783</v>
+        <v>0.000366125195171196</v>
       </c>
       <c r="T4">
-        <v>0.01986901545674783</v>
+        <v>0.000366125195171196</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.898861743481733</v>
+        <v>2.365546333333333</v>
       </c>
       <c r="H5">
-        <v>0.898861743481733</v>
+        <v>7.096639</v>
       </c>
       <c r="I5">
-        <v>0.3300146898198986</v>
+        <v>0.6749523172385903</v>
       </c>
       <c r="J5">
-        <v>0.3300146898198986</v>
+        <v>0.6749523172385903</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.6506838394129</v>
+        <v>34.10446833333334</v>
       </c>
       <c r="N5">
-        <v>13.6506838394129</v>
+        <v>102.313405</v>
       </c>
       <c r="O5">
-        <v>0.2974796127121833</v>
+        <v>0.5118942073015388</v>
       </c>
       <c r="P5">
-        <v>0.2974796127121833</v>
+        <v>0.5118942073015389</v>
       </c>
       <c r="Q5">
-        <v>12.2700774756126</v>
+        <v>80.67570001619944</v>
       </c>
       <c r="R5">
-        <v>12.2700774756126</v>
+        <v>726.081300145795</v>
       </c>
       <c r="S5">
-        <v>0.09817264211695473</v>
+        <v>0.3455041813991849</v>
       </c>
       <c r="T5">
-        <v>0.09817264211695473</v>
+        <v>0.345504181399185</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.898861743481733</v>
+        <v>2.365546333333333</v>
       </c>
       <c r="H6">
-        <v>0.898861743481733</v>
+        <v>7.096639</v>
       </c>
       <c r="I6">
-        <v>0.3300146898198986</v>
+        <v>0.6749523172385903</v>
       </c>
       <c r="J6">
-        <v>0.3300146898198986</v>
+        <v>0.6749523172385903</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.8762685878673</v>
+        <v>31.083557</v>
       </c>
       <c r="N6">
-        <v>30.8762685878673</v>
+        <v>93.25067100000001</v>
       </c>
       <c r="O6">
-        <v>0.6728644901288077</v>
+        <v>0.4665515560925921</v>
       </c>
       <c r="P6">
-        <v>0.6728644901288077</v>
+        <v>0.4665515560925922</v>
       </c>
       <c r="Q6">
-        <v>27.75349661510067</v>
+        <v>73.52959428830766</v>
       </c>
       <c r="R6">
-        <v>27.75349661510067</v>
+        <v>661.7663485947691</v>
       </c>
       <c r="S6">
-        <v>0.2220551660006827</v>
+        <v>0.3149000538959652</v>
       </c>
       <c r="T6">
-        <v>0.2220551660006827</v>
+        <v>0.3149000538959653</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.365546333333333</v>
+      </c>
+      <c r="H7">
+        <v>7.096639</v>
+      </c>
+      <c r="I7">
+        <v>0.6749523172385903</v>
+      </c>
+      <c r="J7">
+        <v>0.6749523172385903</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.436030666666667</v>
+      </c>
+      <c r="N7">
+        <v>4.308092</v>
+      </c>
+      <c r="O7">
+        <v>0.02155423660586901</v>
+      </c>
+      <c r="P7">
+        <v>0.02155423660586901</v>
+      </c>
+      <c r="Q7">
+        <v>3.396997078087555</v>
+      </c>
+      <c r="R7">
+        <v>30.572973702788</v>
+      </c>
+      <c r="S7">
+        <v>0.01454808194344013</v>
+      </c>
+      <c r="T7">
+        <v>0.01454808194344013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.079681666666667</v>
+      </c>
+      <c r="H8">
+        <v>3.239045</v>
+      </c>
+      <c r="I8">
+        <v>0.3080614539347528</v>
+      </c>
+      <c r="J8">
+        <v>0.3080614539347528</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>34.10446833333334</v>
+      </c>
+      <c r="N8">
+        <v>102.313405</v>
+      </c>
+      <c r="O8">
+        <v>0.5118942073015388</v>
+      </c>
+      <c r="P8">
+        <v>0.5118942073015389</v>
+      </c>
+      <c r="Q8">
+        <v>36.82196921091389</v>
+      </c>
+      <c r="R8">
+        <v>331.397722898225</v>
+      </c>
+      <c r="S8">
+        <v>0.1576948737620898</v>
+      </c>
+      <c r="T8">
+        <v>0.1576948737620898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.898861743481733</v>
-      </c>
-      <c r="H7">
-        <v>0.898861743481733</v>
-      </c>
-      <c r="I7">
-        <v>0.3300146898198986</v>
-      </c>
-      <c r="J7">
-        <v>0.3300146898198986</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.36084376472363</v>
-      </c>
-      <c r="N7">
-        <v>1.36084376472363</v>
-      </c>
-      <c r="O7">
-        <v>0.02965589715900899</v>
-      </c>
-      <c r="P7">
-        <v>0.02965589715900899</v>
-      </c>
-      <c r="Q7">
-        <v>1.223210398965727</v>
-      </c>
-      <c r="R7">
-        <v>1.223210398965727</v>
-      </c>
-      <c r="S7">
-        <v>0.009786881702261163</v>
-      </c>
-      <c r="T7">
-        <v>0.009786881702261163</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.079681666666667</v>
+      </c>
+      <c r="H9">
+        <v>3.239045</v>
+      </c>
+      <c r="I9">
+        <v>0.3080614539347528</v>
+      </c>
+      <c r="J9">
+        <v>0.3080614539347528</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>31.083557</v>
+      </c>
+      <c r="N9">
+        <v>93.25067100000001</v>
+      </c>
+      <c r="O9">
+        <v>0.4665515560925921</v>
+      </c>
+      <c r="P9">
+        <v>0.4665515560925922</v>
+      </c>
+      <c r="Q9">
+        <v>33.56034662768833</v>
+      </c>
+      <c r="R9">
+        <v>302.043119649195</v>
+      </c>
+      <c r="S9">
+        <v>0.1437265507054053</v>
+      </c>
+      <c r="T9">
+        <v>0.1437265507054053</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.079681666666667</v>
+      </c>
+      <c r="H10">
+        <v>3.239045</v>
+      </c>
+      <c r="I10">
+        <v>0.3080614539347528</v>
+      </c>
+      <c r="J10">
+        <v>0.3080614539347528</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.436030666666667</v>
+      </c>
+      <c r="N10">
+        <v>4.308092</v>
+      </c>
+      <c r="O10">
+        <v>0.02155423660586901</v>
+      </c>
+      <c r="P10">
+        <v>0.02155423660586901</v>
+      </c>
+      <c r="Q10">
+        <v>1.550455983571111</v>
+      </c>
+      <c r="R10">
+        <v>13.95410385214</v>
+      </c>
+      <c r="S10">
+        <v>0.006640029467257677</v>
+      </c>
+      <c r="T10">
+        <v>0.006640029467257677</v>
       </c>
     </row>
   </sheetData>
